--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H2">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I2">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J2">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.789624</v>
+        <v>22.3363875</v>
       </c>
       <c r="N2">
-        <v>71.57924800000001</v>
+        <v>44.672775</v>
       </c>
       <c r="O2">
-        <v>0.258139457682779</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P2">
-        <v>0.1993778771086309</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q2">
-        <v>1683.125299622884</v>
+        <v>1463.010028556869</v>
       </c>
       <c r="R2">
-        <v>6732.501198491537</v>
+        <v>5852.040114227475</v>
       </c>
       <c r="S2">
-        <v>0.03022544661384089</v>
+        <v>0.03461381899923342</v>
       </c>
       <c r="T2">
-        <v>0.01637625313747008</v>
+        <v>0.01871383698337159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H3">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I3">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J3">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>180.340101</v>
       </c>
       <c r="O3">
-        <v>0.4335790718803266</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P3">
-        <v>0.5023219368682956</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q3">
-        <v>2827.029667682885</v>
+        <v>3937.362689974801</v>
       </c>
       <c r="R3">
-        <v>16962.17800609731</v>
+        <v>23624.17613984881</v>
       </c>
       <c r="S3">
-        <v>0.05076760138739442</v>
+        <v>0.0931553146081698</v>
       </c>
       <c r="T3">
-        <v>0.04125909711726673</v>
+        <v>0.07554612964336258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H4">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I4">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J4">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.1309775</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N4">
-        <v>42.261955</v>
+        <v>0.373519</v>
       </c>
       <c r="O4">
-        <v>0.1524111868891667</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P4">
-        <v>0.1177170633360173</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q4">
-        <v>993.7540231216714</v>
+        <v>8.155034661961833</v>
       </c>
       <c r="R4">
-        <v>3975.016092486685</v>
+        <v>48.930207971771</v>
       </c>
       <c r="S4">
-        <v>0.01784576536273538</v>
+        <v>0.0001929425555613334</v>
       </c>
       <c r="T4">
-        <v>0.009668898353952659</v>
+        <v>0.0001564705500428834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H5">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I5">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J5">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.40334366666667</v>
+        <v>12.9946545</v>
       </c>
       <c r="N5">
-        <v>64.210031</v>
+        <v>25.989309</v>
       </c>
       <c r="O5">
-        <v>0.1543756795743782</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P5">
-        <v>0.178851553034748</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q5">
-        <v>1006.562941870803</v>
+        <v>851.1362838387201</v>
       </c>
       <c r="R5">
-        <v>6039.377651224818</v>
+        <v>3404.545135354881</v>
       </c>
       <c r="S5">
-        <v>0.01807578703130614</v>
+        <v>0.02013730370770896</v>
       </c>
       <c r="T5">
-        <v>0.01469028735284842</v>
+        <v>0.01088716095958829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H6">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I6">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J6">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2072186666666667</v>
+        <v>0.121553</v>
       </c>
       <c r="N6">
-        <v>0.621656</v>
+        <v>0.364659</v>
       </c>
       <c r="O6">
-        <v>0.001494603973349423</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P6">
-        <v>0.001731569652308208</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q6">
-        <v>9.745142346865334</v>
+        <v>7.9615944163385</v>
       </c>
       <c r="R6">
-        <v>58.47085408119201</v>
+        <v>47.769566498031</v>
       </c>
       <c r="S6">
-        <v>0.0001750025858535039</v>
+        <v>0.0001883658913427169</v>
       </c>
       <c r="T6">
-        <v>0.000142225523526415</v>
+        <v>0.0001527590144225269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.33126566666667</v>
+        <v>65.4989545</v>
       </c>
       <c r="H7">
-        <v>36.993797</v>
+        <v>130.997909</v>
       </c>
       <c r="I7">
-        <v>0.03070200057641551</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J7">
-        <v>0.03230555276798244</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.789624</v>
+        <v>0.047492</v>
       </c>
       <c r="N7">
-        <v>71.57924800000001</v>
+        <v>0.142476</v>
       </c>
       <c r="O7">
-        <v>0.258139457682779</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P7">
-        <v>0.1993778771086309</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q7">
-        <v>441.3313616541094</v>
+        <v>3.110676347114</v>
       </c>
       <c r="R7">
-        <v>2647.988169924656</v>
+        <v>18.664058082684</v>
       </c>
       <c r="S7">
-        <v>0.007925397778572266</v>
+        <v>7.359647982072274E-05</v>
       </c>
       <c r="T7">
-        <v>0.006441012529701194</v>
+        <v>5.968450892166089E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J8">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.113367</v>
+        <v>22.3363875</v>
       </c>
       <c r="N8">
-        <v>180.340101</v>
+        <v>44.672775</v>
       </c>
       <c r="O8">
-        <v>0.4335790718803266</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P8">
-        <v>0.5023219368682956</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q8">
-        <v>741.2738985948331</v>
+        <v>275.4359282961125</v>
       </c>
       <c r="R8">
-        <v>6671.465087353497</v>
+        <v>1652.615569776675</v>
       </c>
       <c r="S8">
-        <v>0.01331174491479149</v>
+        <v>0.006516626121375136</v>
       </c>
       <c r="T8">
-        <v>0.01622778783801387</v>
+        <v>0.005284785778175595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J9">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.1309775</v>
+        <v>60.113367</v>
       </c>
       <c r="N9">
-        <v>42.261955</v>
+        <v>180.340101</v>
       </c>
       <c r="O9">
-        <v>0.1524111868891667</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P9">
-        <v>0.1177170633360173</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q9">
-        <v>260.5716973488558</v>
+        <v>741.2738985948331</v>
       </c>
       <c r="R9">
-        <v>1563.430184093135</v>
+        <v>6671.465087353497</v>
       </c>
       <c r="S9">
-        <v>0.004679328347723367</v>
+        <v>0.01753803463680105</v>
       </c>
       <c r="T9">
-        <v>0.003802914801293637</v>
+        <v>0.02133421980164766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J10">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.40334366666667</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N10">
-        <v>64.210031</v>
+        <v>0.373519</v>
       </c>
       <c r="O10">
-        <v>0.1543756795743782</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P10">
-        <v>0.178851553034748</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q10">
-        <v>263.9303169086342</v>
+        <v>1.535320673515889</v>
       </c>
       <c r="R10">
-        <v>2375.372852177707</v>
+        <v>13.817886061643</v>
       </c>
       <c r="S10">
-        <v>0.004739642203277095</v>
+        <v>3.632463951821394E-05</v>
       </c>
       <c r="T10">
-        <v>0.005777898284199661</v>
+        <v>4.418726839956484E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J11">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2072186666666667</v>
+        <v>12.9946545</v>
       </c>
       <c r="N11">
-        <v>0.621656</v>
+        <v>25.989309</v>
       </c>
       <c r="O11">
-        <v>0.001494603973349423</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P11">
-        <v>0.001731569652308208</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q11">
-        <v>2.555268429759111</v>
+        <v>160.2405368860455</v>
       </c>
       <c r="R11">
-        <v>22.997415867832</v>
+        <v>961.443221316273</v>
       </c>
       <c r="S11">
-        <v>4.588733205128689E-05</v>
+        <v>0.003791181763521292</v>
       </c>
       <c r="T11">
-        <v>5.593931477407984E-05</v>
+        <v>0.003074533215986941</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>129.0494106666667</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H12">
-        <v>387.148232</v>
+        <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.3213031969122349</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J12">
-        <v>0.3380847237148192</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>35.789624</v>
+        <v>0.121553</v>
       </c>
       <c r="N12">
-        <v>71.57924800000001</v>
+        <v>0.364659</v>
       </c>
       <c r="O12">
-        <v>0.258139457682779</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P12">
-        <v>0.1993778771086309</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q12">
-        <v>4618.629885181589</v>
+        <v>1.498902335580333</v>
       </c>
       <c r="R12">
-        <v>27711.77931108954</v>
+        <v>13.490121020223</v>
       </c>
       <c r="S12">
-        <v>0.08294103300266745</v>
+        <v>3.546300649250072E-05</v>
       </c>
       <c r="T12">
-        <v>0.06740661449711866</v>
+        <v>4.313913109458131E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>129.0494106666667</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H13">
-        <v>387.148232</v>
+        <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.3213031969122349</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J13">
-        <v>0.3380847237148192</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.113367</v>
+        <v>0.047492</v>
       </c>
       <c r="N13">
-        <v>180.340101</v>
+        <v>0.142476</v>
       </c>
       <c r="O13">
-        <v>0.4335790718803266</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P13">
-        <v>0.5023219368682956</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q13">
-        <v>7757.594584539048</v>
+        <v>0.5856364690413334</v>
       </c>
       <c r="R13">
-        <v>69818.35126085143</v>
+        <v>5.270728221372</v>
       </c>
       <c r="S13">
-        <v>0.1393103419093886</v>
+        <v>1.385575925186416E-05</v>
       </c>
       <c r="T13">
-        <v>0.1698273732420106</v>
+        <v>1.685489962357042E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H14">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I14">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J14">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.1309775</v>
+        <v>22.3363875</v>
       </c>
       <c r="N14">
-        <v>42.261955</v>
+        <v>44.672775</v>
       </c>
       <c r="O14">
-        <v>0.1524111868891667</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P14">
-        <v>0.1177170633360173</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q14">
-        <v>2726.940193185593</v>
+        <v>2771.539955716525</v>
       </c>
       <c r="R14">
-        <v>16361.64115911356</v>
+        <v>16629.23973429915</v>
       </c>
       <c r="S14">
-        <v>0.04897020159267734</v>
+        <v>0.06557274420801154</v>
       </c>
       <c r="T14">
-        <v>0.03979834083447728</v>
+        <v>0.05317750313920408</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H15">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I15">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J15">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.40334366666667</v>
+        <v>60.113367</v>
       </c>
       <c r="N15">
-        <v>64.210031</v>
+        <v>180.340101</v>
       </c>
       <c r="O15">
-        <v>0.1543756795743782</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P15">
-        <v>0.178851553034748</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q15">
-        <v>2762.088886479466</v>
+        <v>7458.976905426234</v>
       </c>
       <c r="R15">
-        <v>24858.79997831519</v>
+        <v>67130.7921488361</v>
       </c>
       <c r="S15">
-        <v>0.04960139937274651</v>
+        <v>0.1764743039926811</v>
       </c>
       <c r="T15">
-        <v>0.06046697789371911</v>
+        <v>0.2146729476073935</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H16">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I16">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J16">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,60 +1429,60 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2072186666666667</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N16">
-        <v>0.621656</v>
+        <v>0.373519</v>
       </c>
       <c r="O16">
-        <v>0.001494603973349423</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P16">
-        <v>0.001731569652308208</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q16">
-        <v>26.74144681246577</v>
+        <v>15.44897435062378</v>
       </c>
       <c r="R16">
-        <v>240.673021312192</v>
+        <v>139.040769155614</v>
       </c>
       <c r="S16">
-        <v>0.0004802210347548983</v>
+        <v>0.0003655121916175607</v>
       </c>
       <c r="T16">
-        <v>0.0005854172474935862</v>
+        <v>0.0004446289220907447</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.780919</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H17">
-        <v>25.561838</v>
+        <v>372.245506</v>
       </c>
       <c r="I17">
-        <v>0.03182153341857176</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J17">
-        <v>0.02232237221704003</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>35.789624</v>
+        <v>12.9946545</v>
       </c>
       <c r="N17">
-        <v>71.57924800000001</v>
+        <v>25.989309</v>
       </c>
       <c r="O17">
-        <v>0.258139457682779</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P17">
-        <v>0.1993778771086309</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q17">
-        <v>457.4242853844561</v>
+        <v>1612.400579882559</v>
       </c>
       <c r="R17">
-        <v>1829.697141537824</v>
+        <v>9674.403479295353</v>
       </c>
       <c r="S17">
-        <v>0.008214393379304541</v>
+        <v>0.03814829750782153</v>
       </c>
       <c r="T17">
-        <v>0.004450587184662123</v>
+        <v>0.03093711015116577</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.780919</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H18">
-        <v>25.561838</v>
+        <v>372.245506</v>
       </c>
       <c r="I18">
-        <v>0.03182153341857176</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J18">
-        <v>0.02232237221704003</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>60.113367</v>
+        <v>0.121553</v>
       </c>
       <c r="N18">
-        <v>180.340101</v>
+        <v>0.364659</v>
       </c>
       <c r="O18">
-        <v>0.4335790718803266</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P18">
-        <v>0.5023219368682956</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q18">
-        <v>768.3040744442731</v>
+        <v>15.08251933027267</v>
       </c>
       <c r="R18">
-        <v>4609.824446665639</v>
+        <v>135.742673972454</v>
       </c>
       <c r="S18">
-        <v>0.01379715092543314</v>
+        <v>0.0003568421158845148</v>
       </c>
       <c r="T18">
-        <v>0.01121301724755858</v>
+        <v>0.0004340821701190271</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.780919</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H19">
-        <v>25.561838</v>
+        <v>372.245506</v>
       </c>
       <c r="I19">
-        <v>0.03182153341857176</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J19">
-        <v>0.02232237221704003</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.1309775</v>
+        <v>0.047492</v>
       </c>
       <c r="N19">
-        <v>42.261955</v>
+        <v>0.142476</v>
       </c>
       <c r="O19">
-        <v>0.1524111868891667</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P19">
-        <v>0.1177170633360173</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q19">
-        <v>270.0733118183225</v>
+        <v>5.892894523650667</v>
       </c>
       <c r="R19">
-        <v>1080.29324727329</v>
+        <v>53.036050712856</v>
       </c>
       <c r="S19">
-        <v>0.004849957676957803</v>
+        <v>0.0001394218634471167</v>
       </c>
       <c r="T19">
-        <v>0.002627724104083453</v>
+        <v>0.0001696003424291694</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H20">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I20">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J20">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.40334366666667</v>
+        <v>22.3363875</v>
       </c>
       <c r="N20">
-        <v>64.210031</v>
+        <v>44.672775</v>
       </c>
       <c r="O20">
-        <v>0.1543756795743782</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P20">
-        <v>0.178851553034748</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q20">
-        <v>273.5544017328297</v>
+        <v>389.8000489889625</v>
       </c>
       <c r="R20">
-        <v>1641.326410396978</v>
+        <v>1559.20019595585</v>
       </c>
       <c r="S20">
-        <v>0.004912470846590801</v>
+        <v>0.009222403181272385</v>
       </c>
       <c r="T20">
-        <v>0.003992390938437319</v>
+        <v>0.004986059172872</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H21">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I21">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J21">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.2072186666666667</v>
+        <v>60.113367</v>
       </c>
       <c r="N21">
-        <v>0.621656</v>
+        <v>180.340101</v>
       </c>
       <c r="O21">
-        <v>0.001494603973349423</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P21">
-        <v>0.001731569652308208</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q21">
-        <v>2.648444993954667</v>
+        <v>1049.059226855349</v>
       </c>
       <c r="R21">
-        <v>15.890669963728</v>
+        <v>6294.355361132094</v>
       </c>
       <c r="S21">
-        <v>4.75605902854688E-05</v>
+        <v>0.02482002548790821</v>
       </c>
       <c r="T21">
-        <v>3.865274229855441E-05</v>
+        <v>0.02012828651964676</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.810285</v>
+        <v>17.451347</v>
       </c>
       <c r="H22">
-        <v>125.430855</v>
+        <v>34.902694</v>
       </c>
       <c r="I22">
-        <v>0.1040979432987182</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J22">
-        <v>0.1095349337872956</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>35.789624</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N22">
-        <v>71.57924800000001</v>
+        <v>0.373519</v>
       </c>
       <c r="O22">
-        <v>0.258139457682779</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P22">
-        <v>0.1993778771086309</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q22">
-        <v>1496.37437948284</v>
+        <v>2.172803226697666</v>
       </c>
       <c r="R22">
-        <v>8978.246276897042</v>
+        <v>13.036819360186</v>
       </c>
       <c r="S22">
-        <v>0.02687178662902378</v>
+        <v>5.140704174396568E-05</v>
       </c>
       <c r="T22">
-        <v>0.02183884256774544</v>
+        <v>4.168954886263449E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.810285</v>
+        <v>17.451347</v>
       </c>
       <c r="H23">
-        <v>125.430855</v>
+        <v>34.902694</v>
       </c>
       <c r="I23">
-        <v>0.1040979432987182</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J23">
-        <v>0.1095349337872956</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>60.113367</v>
+        <v>12.9946545</v>
       </c>
       <c r="N23">
-        <v>180.340101</v>
+        <v>25.989309</v>
       </c>
       <c r="O23">
-        <v>0.4335790718803266</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P23">
-        <v>0.5023219368682956</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q23">
-        <v>2513.357006579595</v>
+        <v>226.7742248246115</v>
       </c>
       <c r="R23">
-        <v>22620.21305921636</v>
+        <v>907.0968992984459</v>
       </c>
       <c r="S23">
-        <v>0.04513468964010909</v>
+        <v>0.005365323421271031</v>
       </c>
       <c r="T23">
-        <v>0.05502180009477484</v>
+        <v>0.002900742846981295</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.810285</v>
+        <v>17.451347</v>
       </c>
       <c r="H24">
-        <v>125.430855</v>
+        <v>34.902694</v>
       </c>
       <c r="I24">
-        <v>0.1040979432987182</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J24">
-        <v>0.1095349337872956</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>21.1309775</v>
+        <v>0.121553</v>
       </c>
       <c r="N24">
-        <v>42.261955</v>
+        <v>0.364659</v>
       </c>
       <c r="O24">
-        <v>0.1524111868891667</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P24">
-        <v>0.1177170633360173</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q24">
-        <v>883.4921916035876</v>
+        <v>2.121263581891</v>
       </c>
       <c r="R24">
-        <v>5300.953149621525</v>
+        <v>12.727581491346</v>
       </c>
       <c r="S24">
-        <v>0.01586569109087881</v>
+        <v>5.018764891561817E-05</v>
       </c>
       <c r="T24">
-        <v>0.01289413073814553</v>
+        <v>4.070065832982909E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.810285</v>
+        <v>17.451347</v>
       </c>
       <c r="H25">
-        <v>125.430855</v>
+        <v>34.902694</v>
       </c>
       <c r="I25">
-        <v>0.1040979432987182</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J25">
-        <v>0.1095349337872956</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.40334366666667</v>
+        <v>0.047492</v>
       </c>
       <c r="N25">
-        <v>64.210031</v>
+        <v>0.142476</v>
       </c>
       <c r="O25">
-        <v>0.1543756795743782</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P25">
-        <v>0.178851553034748</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q25">
-        <v>894.8798986562784</v>
+        <v>0.8287993717239999</v>
       </c>
       <c r="R25">
-        <v>8053.919087906505</v>
+        <v>4.972796230344</v>
       </c>
       <c r="S25">
-        <v>0.01607019073903471</v>
+        <v>1.960882760853733E-05</v>
       </c>
       <c r="T25">
-        <v>0.0195904930194161</v>
+        <v>1.590216338058495E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H26">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I26">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J26">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2072186666666667</v>
+        <v>22.3363875</v>
       </c>
       <c r="N26">
-        <v>0.621656</v>
+        <v>44.672775</v>
       </c>
       <c r="O26">
-        <v>0.001494603973349423</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P26">
-        <v>0.001731569652308208</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q26">
-        <v>8.663871510653333</v>
+        <v>3092.19358496755</v>
       </c>
       <c r="R26">
-        <v>77.97484359588</v>
+        <v>18553.1615098053</v>
       </c>
       <c r="S26">
-        <v>0.0001555851996717671</v>
+        <v>0.07315919027994347</v>
       </c>
       <c r="T26">
-        <v>0.0001896673672136701</v>
+        <v>0.05932988039103598</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>158.6435343333333</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H27">
-        <v>475.930603</v>
+        <v>415.312492</v>
       </c>
       <c r="I27">
-        <v>0.3949857228129294</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J27">
-        <v>0.4156156560277984</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>35.789624</v>
+        <v>60.113367</v>
       </c>
       <c r="N27">
-        <v>71.57924800000001</v>
+        <v>180.340101</v>
       </c>
       <c r="O27">
-        <v>0.258139457682779</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P27">
-        <v>0.1993778771086309</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q27">
-        <v>5677.792443821092</v>
+        <v>8321.944083760189</v>
       </c>
       <c r="R27">
-        <v>34066.75466292655</v>
+        <v>74897.4967538417</v>
       </c>
       <c r="S27">
-        <v>0.1019614002793701</v>
+        <v>0.1968915185914049</v>
       </c>
       <c r="T27">
-        <v>0.0828645671919334</v>
+        <v>0.23950955860784</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>158.6435343333333</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H28">
-        <v>475.930603</v>
+        <v>415.312492</v>
       </c>
       <c r="I28">
-        <v>0.3949857228129294</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J28">
-        <v>0.4156156560277984</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.113367</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N28">
-        <v>180.340101</v>
+        <v>0.373519</v>
       </c>
       <c r="O28">
-        <v>0.4335790718803266</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P28">
-        <v>0.5023219368682956</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q28">
-        <v>9536.597001556769</v>
+        <v>17.23634518881644</v>
       </c>
       <c r="R28">
-        <v>85829.37301401091</v>
+        <v>155.127106699348</v>
       </c>
       <c r="S28">
-        <v>0.1712575431032099</v>
+        <v>0.0004078001660470567</v>
       </c>
       <c r="T28">
-        <v>0.208772861328671</v>
+        <v>0.0004960703156179433</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>158.6435343333333</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H29">
-        <v>475.930603</v>
+        <v>415.312492</v>
       </c>
       <c r="I29">
-        <v>0.3949857228129294</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J29">
-        <v>0.4156156560277984</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.1309775</v>
+        <v>12.9946545</v>
       </c>
       <c r="N29">
-        <v>42.261955</v>
+        <v>25.989309</v>
       </c>
       <c r="O29">
-        <v>0.1524111868891667</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P29">
-        <v>0.1177170633360173</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q29">
-        <v>3352.292954518145</v>
+        <v>1798.947447691338</v>
       </c>
       <c r="R29">
-        <v>20113.75772710887</v>
+        <v>10793.68468614803</v>
       </c>
       <c r="S29">
-        <v>0.06020024281819396</v>
+        <v>0.04256186911100211</v>
       </c>
       <c r="T29">
-        <v>0.04892505450406472</v>
+        <v>0.03451638261593722</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>158.6435343333333</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H30">
-        <v>475.930603</v>
+        <v>415.312492</v>
       </c>
       <c r="I30">
-        <v>0.3949857228129294</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J30">
-        <v>0.4156156560277984</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>21.40334366666667</v>
+        <v>0.121553</v>
       </c>
       <c r="N30">
-        <v>64.210031</v>
+        <v>0.364659</v>
       </c>
       <c r="O30">
-        <v>0.1543756795743782</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P30">
-        <v>0.178851553034748</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q30">
-        <v>3395.502085830966</v>
+        <v>16.82749311335867</v>
       </c>
       <c r="R30">
-        <v>30559.5187724787</v>
+        <v>151.447438020228</v>
       </c>
       <c r="S30">
-        <v>0.06097618938142296</v>
+        <v>0.0003981270049195721</v>
       </c>
       <c r="T30">
-        <v>0.07433350554612736</v>
+        <v>0.0004843033559816866</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>158.6435343333333</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H31">
-        <v>475.930603</v>
+        <v>415.312492</v>
       </c>
       <c r="I31">
-        <v>0.3949857228129294</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J31">
-        <v>0.4156156560277984</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.2072186666666667</v>
+        <v>0.047492</v>
       </c>
       <c r="N31">
-        <v>0.621656</v>
+        <v>0.142476</v>
       </c>
       <c r="O31">
-        <v>0.001494603973349423</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P31">
-        <v>0.001731569652308208</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q31">
-        <v>32.87390165984089</v>
+        <v>6.574673623354667</v>
       </c>
       <c r="R31">
-        <v>295.865114938568</v>
+        <v>59.172062610192</v>
       </c>
       <c r="S31">
-        <v>0.0005903472307324982</v>
+        <v>0.0001555522917380922</v>
       </c>
       <c r="T31">
-        <v>0.0007196674570019029</v>
+        <v>0.0001892222732658368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>83.68172299999999</v>
+      </c>
+      <c r="H32">
+        <v>251.045169</v>
+      </c>
+      <c r="I32">
+        <v>0.1895470368979645</v>
+      </c>
+      <c r="J32">
+        <v>0.2022115674432087</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>22.3363875</v>
+      </c>
+      <c r="N32">
+        <v>44.672775</v>
+      </c>
+      <c r="O32">
+        <v>0.2333075346730891</v>
+      </c>
+      <c r="P32">
+        <v>0.1773553735433322</v>
+      </c>
+      <c r="Q32">
+        <v>1869.147391595662</v>
+      </c>
+      <c r="R32">
+        <v>11214.88434957397</v>
+      </c>
+      <c r="S32">
+        <v>0.04422275188325316</v>
+      </c>
+      <c r="T32">
+        <v>0.035863308078673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>83.68172299999999</v>
+      </c>
+      <c r="H33">
+        <v>251.045169</v>
+      </c>
+      <c r="I33">
+        <v>0.1895470368979645</v>
+      </c>
+      <c r="J33">
+        <v>0.2022115674432087</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>60.113367</v>
+      </c>
+      <c r="N33">
+        <v>180.340101</v>
+      </c>
+      <c r="O33">
+        <v>0.627894795237978</v>
+      </c>
+      <c r="P33">
+        <v>0.715968192656428</v>
+      </c>
+      <c r="Q33">
+        <v>5030.390125891341</v>
+      </c>
+      <c r="R33">
+        <v>45273.51113302207</v>
+      </c>
+      <c r="S33">
+        <v>0.1190155979210129</v>
+      </c>
+      <c r="T33">
+        <v>0.1447770504765375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>83.68172299999999</v>
+      </c>
+      <c r="H34">
+        <v>251.045169</v>
+      </c>
+      <c r="I34">
+        <v>0.1895470368979645</v>
+      </c>
+      <c r="J34">
+        <v>0.2022115674432087</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.1245063333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.373519</v>
+      </c>
+      <c r="O34">
+        <v>0.001300490765625635</v>
+      </c>
+      <c r="P34">
+        <v>0.001482907694239543</v>
+      </c>
+      <c r="Q34">
+        <v>10.41890449774566</v>
+      </c>
+      <c r="R34">
+        <v>93.77014047971099</v>
+      </c>
+      <c r="S34">
+        <v>0.0002465041711375043</v>
+      </c>
+      <c r="T34">
+        <v>0.0002998610892257725</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>83.68172299999999</v>
+      </c>
+      <c r="H35">
+        <v>251.045169</v>
+      </c>
+      <c r="I35">
+        <v>0.1895470368979645</v>
+      </c>
+      <c r="J35">
+        <v>0.2022115674432087</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>12.9946545</v>
+      </c>
+      <c r="N35">
+        <v>25.989309</v>
+      </c>
+      <c r="O35">
+        <v>0.1357314742736964</v>
+      </c>
+      <c r="P35">
+        <v>0.103180149561519</v>
+      </c>
+      <c r="Q35">
+        <v>1087.415078349703</v>
+      </c>
+      <c r="R35">
+        <v>6524.490470098221</v>
+      </c>
+      <c r="S35">
+        <v>0.02572749876237145</v>
+      </c>
+      <c r="T35">
+        <v>0.02086421977185945</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>83.68172299999999</v>
+      </c>
+      <c r="H36">
+        <v>251.045169</v>
+      </c>
+      <c r="I36">
+        <v>0.1895470368979645</v>
+      </c>
+      <c r="J36">
+        <v>0.2022115674432087</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.121553</v>
+      </c>
+      <c r="N36">
+        <v>0.364659</v>
+      </c>
+      <c r="O36">
+        <v>0.001269642674408205</v>
+      </c>
+      <c r="P36">
+        <v>0.00144773261031888</v>
+      </c>
+      <c r="Q36">
+        <v>10.171764475819</v>
+      </c>
+      <c r="R36">
+        <v>91.545880282371</v>
+      </c>
+      <c r="S36">
+        <v>0.0002406570068532824</v>
+      </c>
+      <c r="T36">
+        <v>0.0002927482803712287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>83.68172299999999</v>
+      </c>
+      <c r="H37">
+        <v>251.045169</v>
+      </c>
+      <c r="I37">
+        <v>0.1895470368979645</v>
+      </c>
+      <c r="J37">
+        <v>0.2022115674432087</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.047492</v>
+      </c>
+      <c r="N37">
+        <v>0.142476</v>
+      </c>
+      <c r="O37">
+        <v>0.000496062375202541</v>
+      </c>
+      <c r="P37">
+        <v>0.0005656439341625811</v>
+      </c>
+      <c r="Q37">
+        <v>3.974212388715999</v>
+      </c>
+      <c r="R37">
+        <v>35.76791149844399</v>
+      </c>
+      <c r="S37">
+        <v>9.402715333620797E-05</v>
+      </c>
+      <c r="T37">
+        <v>0.0001143797465417587</v>
       </c>
     </row>
   </sheetData>
